--- a/data/trans_bre/P21D_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P21D_3_R-Estudios-trans_bre.xlsx
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.201979815221888</v>
+        <v>1.081536791782378</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2515890172041508</v>
+        <v>-0.2381037634482058</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1537069526659635</v>
+        <v>0.1531577338504367</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.06694642564283322</v>
+        <v>-0.09669163224968376</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2714769908474566</v>
+        <v>0.2368632743198936</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
